--- a/Client/Assets/11. GameData/Weapon_Stat.xlsx
+++ b/Client/Assets/11. GameData/Weapon_Stat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FestivalTownProject\Client\Assets\02. Scripts\Parse\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8191884D-C0C3-4D81-ACFB-7D4EA64229F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4202EB-7273-4598-8176-FE0CE771F055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23895" yWindow="1800" windowWidth="22680" windowHeight="11295" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,22 +523,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A44DD5-7D06-438B-9FE5-436D9EFF504F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,13 +553,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -568,13 +576,16 @@
         <v>1.4</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -588,9 +599,12 @@
         <v>1.4</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15</v>
       </c>
     </row>
@@ -602,12 +616,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -765,6 +773,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -775,22 +789,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -808,6 +806,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>

--- a/Client/Assets/11. GameData/Weapon_Stat.xlsx
+++ b/Client/Assets/11. GameData/Weapon_Stat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\fix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Client\Assets\11. GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4202EB-7273-4598-8176-FE0CE771F055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0BB0A9-F665-4250-948C-FC31D53D450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4FE2F6FA-A971-4D00-9C9F-70C15B0F2373}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1.4</v>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1.4</v>
@@ -616,6 +616,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000168296C255B5D46B72DA629862DD870" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a688b941d50903c1d18649d8c0763796">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="216f0c87-b1ea-4333-b2c4-608be75d64b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff4785467fc8158ecbe8e36ba569b54a" ns3:_="">
     <xsd:import namespace="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
@@ -773,12 +779,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -789,6 +789,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ACDFD5-C600-4A9D-A2FF-B29B86319DE6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -806,22 +822,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95EE4443-A78B-461C-B08E-5464C845DB42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="216f0c87-b1ea-4333-b2c4-608be75d64b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3937CF16-5D2A-4290-A80F-934D1B2B013A}">
   <ds:schemaRefs>
